--- a/biology/Zoologie/John_Dow_Fisher_Gilchrist/John_Dow_Fisher_Gilchrist.xlsx
+++ b/biology/Zoologie/John_Dow_Fisher_Gilchrist/John_Dow_Fisher_Gilchrist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Dow Fisher Gilchrist est un ichtyologiste sud-africain, né à Anstruther, en Écosse en 1866 et mort en 1926 au Cap, en Afrique du Sud[1].
-Gilchrist obtient son diplôme de Philosophiæ doctor en 1894 à l'université d'Iéna en Allemagne. Il se rend peu après en Afrique du Sud où il occupe le premier poste de directeur de la Marine Biological Survey de 1896 à 1907[2]. Fermée pour manque de fonds, l'institution reprend ses activités sous un nouveau nom en 1920 : les expéditions sont effectuées sur le baleinier à vapeur SS Pickle  prêté par l'amirauté[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Dow Fisher Gilchrist est un ichtyologiste sud-africain, né à Anstruther, en Écosse en 1866 et mort en 1926 au Cap, en Afrique du Sud.
+Gilchrist obtient son diplôme de Philosophiæ doctor en 1894 à l'université d'Iéna en Allemagne. Il se rend peu après en Afrique du Sud où il occupe le premier poste de directeur de la Marine Biological Survey de 1896 à 1907. Fermée pour manque de fonds, l'institution reprend ses activités sous un nouveau nom en 1920 : les expéditions sont effectuées sur le baleinier à vapeur SS Pickle  prêté par l'amirauté.
 Il a décrit de nombreux taxons de genres et d'espèces de poissons. Le Code international de nomenclature zoologique lui attribue l'abréviation Gilchrist.
-Le genre Gilchristella de la famille Clupeidae a été nommé en son honneur par Henry Weed Fowler en 1935[1].
+Le genre Gilchristella de la famille Clupeidae a été nommé en son honneur par Henry Weed Fowler en 1935.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>South African Zoology. A Text Book for the Use of Students, Teachers and Others in South Africa (Le Cap et Pretoria, 1912)
 The Freshwater Fishes of South Africa: Volume 11, Parts 5-6 of Annals of the South African Museum (Trustees of the South African Museum, 1913)
